--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="600" windowWidth="18880" windowHeight="6490" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="600" windowWidth="18880" windowHeight="6490"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -172,13 +172,28 @@
   </si>
   <si>
     <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>IErmaykin@ibs.ru</t>
+  </si>
+  <si>
+    <t>Ibs00000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,6 +203,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -208,14 +229,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -591,20 +615,43 @@
       <c r="A6" t="s">
         <v>49</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1592,6 +1639,10 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1600,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="600" windowWidth="18880" windowHeight="6490"/>
+    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -165,28 +165,22 @@
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
+    <t>SHA1 Online URL</t>
+  </si>
+  <si>
+    <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>System1CredentialAsset</t>
+  </si>
+  <si>
     <t>System1 URL</t>
   </si>
   <si>
-    <t>SHA1 Online URL</t>
-  </si>
-  <si>
-    <t>System1_Credential</t>
+    <t>http://www.sha1-online.com/</t>
   </si>
   <si>
     <t>https://acme-test.uipath.com/</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>IErmaykin@ibs.ru</t>
-  </si>
-  <si>
-    <t>Ibs00000</t>
   </si>
 </sst>
 </file>
@@ -542,7 +536,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -613,45 +607,31 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1641,7 +1621,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1652,7 +1632,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -168,9 +168,6 @@
     <t>SHA1 Online URL</t>
   </si>
   <si>
-    <t>System1_Credential</t>
-  </si>
-  <si>
     <t>System1CredentialAsset</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>System1 Credential</t>
   </si>
 </sst>
 </file>
@@ -607,10 +607,10 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -618,15 +618,15 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+    <workbookView xWindow="130" yWindow="500" windowWidth="28480" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -150,9 +150,6 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>KibanaDemoQueue</t>
-  </si>
-  <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
@@ -165,22 +162,22 @@
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>SHA1 Online URL</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>InHouse_Process4</t>
+  </si>
+  <si>
+    <t>System1 URL</t>
+  </si>
+  <si>
+    <t>System1 Credential</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
   </si>
   <si>
     <t>System1CredentialAsset</t>
-  </si>
-  <si>
-    <t>System1 URL</t>
-  </si>
-  <si>
-    <t>http://www.sha1-online.com/</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/</t>
-  </si>
-  <si>
-    <t>System1 Credential</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -549,7 +546,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -586,49 +583,42 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1621,7 +1611,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>InHouse_Process4</t>
@@ -532,9 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -546,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -583,7 +578,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -604,18 +599,18 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
